--- a/assets/sp_cetesb_infoaguas/excel/PIRE02800.xlsx
+++ b/assets/sp_cetesb_infoaguas/excel/PIRE02800.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -852,18 +852,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.15000000</t>
+          <t>5.13000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -878,18 +878,18 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8.16000000</t>
+          <t>26000.00000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -904,18 +904,18 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.13000000</t>
+          <t>0.70000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -930,18 +930,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>16.70000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -982,17 +986,13 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>9.26000000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1012,18 +1012,18 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.37000000</t>
+          <t>7.15000000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1064,13 +1064,13 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>9.26000000</t>
+          <t>8.16000000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1090,18 +1090,18 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>257.30000000</t>
+          <t>6.84000000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1116,18 +1116,18 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.70000000</t>
+          <t>257.30000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1142,18 +1142,18 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.84000000</t>
+          <t>16.70000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1168,17 +1168,13 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DQO (relativo a carbono)</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>4.37000000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1198,18 +1194,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>26000.00000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1224,17 +1224,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DQO (relativo a carbono)</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>4.82000000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1254,18 +1250,18 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>29000.00000000</t>
+          <t>14.20000000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1280,17 +1276,13 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>5.45000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1310,13 +1302,13 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.82000000</t>
+          <t>5.70000000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1336,18 +1328,18 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>122.00000000</t>
+          <t>5.92000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1362,18 +1354,18 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14.20000000</t>
+          <t>0.40000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1388,18 +1380,18 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5.45000000</t>
+          <t>29000.00000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1414,13 +1406,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.64000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1440,18 +1436,18 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.07000000</t>
+          <t>206.80000000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1466,13 +1462,13 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.40000000</t>
+          <t>4.64000000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1492,18 +1488,18 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>206.80000000</t>
+          <t>122.00000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1544,18 +1540,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Turbidez</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5.92000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1570,13 +1570,13 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5.70000000</t>
+          <t>4.07000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1596,18 +1596,18 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>9.11000000</t>
+          <t>231.40000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1622,18 +1622,18 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5.24000000</t>
+          <t>7.31000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1648,18 +1648,18 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>22.70000000</t>
+          <t>4.89000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1674,13 +1674,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6.09000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1700,13 +1704,13 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.89000000</t>
+          <t>0.49000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1726,18 +1730,18 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>144.00000000</t>
+          <t>58000.00000000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1752,22 +1756,18 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>22.70000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1782,18 +1782,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>pH</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>7.31000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1808,18 +1812,18 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>58000.00000000</t>
+          <t>5.24000000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1834,13 +1838,13 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.49000000</t>
+          <t>6.09000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -1860,18 +1864,18 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>231.40000000</t>
+          <t>8.42000000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1886,13 +1890,13 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5.99000000</t>
+          <t>144.00000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -1912,18 +1916,18 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>8.42000000</t>
+          <t>9.11000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1938,17 +1942,13 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DQO (relativo a carbono)</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>5.99000000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -1968,18 +1968,18 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4.33000000</t>
+          <t>23.30000000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1994,18 +1994,18 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>43000.00000000</t>
+          <t>4.33000000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2020,13 +2020,13 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.58000000</t>
+          <t>8.06000000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2046,18 +2046,18 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>9.06000000</t>
+          <t>6.77000000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2072,18 +2072,18 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>23.30000000</t>
+          <t>43000.00000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -2098,18 +2098,18 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6.77000000</t>
+          <t>7.17000000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -2124,13 +2124,13 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>120.00000000</t>
+          <t>8.02000000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2150,18 +2150,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>234.10000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2176,13 +2180,13 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>8.06000000</t>
+          <t>0.58000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2232,18 +2236,18 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>8.02000000</t>
+          <t>9.06000000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -2258,17 +2262,13 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>120.00000000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2288,18 +2288,18 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>7.17000000</t>
+          <t>234.10000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2314,18 +2314,18 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4.03000000</t>
+          <t>7.17000000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -2340,18 +2340,18 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>240000.00000000</t>
+          <t>7.00000000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2366,13 +2366,13 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>7.00000000</t>
+          <t>4.03000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2392,18 +2392,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>196.90000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2418,18 +2422,18 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>37.05000000</t>
+          <t>152.00000000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2444,18 +2448,18 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5.45000000</t>
+          <t>196.90000000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2470,13 +2474,13 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>152.00000000</t>
+          <t>11.00000000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2496,13 +2500,13 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11.00000000</t>
+          <t>5.45000000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2552,18 +2556,18 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>21.80000000</t>
+          <t>240000.00000000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -2578,22 +2582,18 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>37.05000000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -2608,13 +2608,13 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3.71000000</t>
+          <t>0.40000000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2634,18 +2634,18 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.40000000</t>
+          <t>21.80000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2660,16 +2660,1474 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>7.17000000</t>
+          <t>3.71000000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>18.20000000</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>7.11000000</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>5.27000000</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>23000.00000000</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>6.30000000</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>208.10000000</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0.40000000</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>4.27000000</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>5.75000000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>108.00000000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>4.99000000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>4.49000000</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>44370.38888888889</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>6.19000000</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>44370.38888888889</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>7.14000000</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>44370.38888888889</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>108.00000000</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>44370.38888888889</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>16.80000000</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>44370.38888888889</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>6.74000000</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>44370.38888888889</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>44370.38888888889</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>220.70000000</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>44370.38888888889</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>4.42000000</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>44370.38888888889</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>4.07000000</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>44370.38888888889</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>44370.38888888889</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>23000.00000000</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>44370.38888888889</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>4.44000000</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>44370.38888888889</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>6.50000000</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>44370.38888888889</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0.47000000</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>44432.39583333334</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>44432.39583333334</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>258.70000000</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>44432.39583333334</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>12.50000000</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>44432.39583333334</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>44432.39583333334</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>10.75000000</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>44432.39583333334</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>54000.00000000</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>44432.39583333334</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>9.29000000</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>44432.39583333334</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0.86000000</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>44432.39583333334</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>10.30000000</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>44432.39583333334</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>17.60000000</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>44432.39583333334</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>4.03000000</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>44432.39583333334</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>9.58000000</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>44432.39583333334</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>132.00000000</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>44432.39583333334</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>7.31000000</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>44496.37847222222</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>4.56000000</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>44496.37847222222</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>220.90000000</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>44496.37847222222</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>126.00000000</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>44496.37847222222</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>4.23000000</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>44496.37847222222</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>44496.37847222222</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0.35000000</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>44496.37847222222</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>10.90000000</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>44496.37847222222</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>6.56000000</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>44496.37847222222</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>4.71000000</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>44496.37847222222</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>28000.00000000</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>44496.37847222222</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>19.50000000</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>44496.37847222222</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>5.59000000</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>PIRE02800</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>44496.37847222222</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>7.14000000</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
         <is>
           <t>U.pH</t>
         </is>
